--- a/simulation_data/iterative_algorithm/i_error_level_8_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_8_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.88571844977422</v>
+        <v>90.26285121175223</v>
       </c>
       <c r="D2" t="n">
-        <v>10.34378221895019</v>
+        <v>9.415345710800301</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.06268209220624</v>
+        <v>90.0491307751406</v>
       </c>
       <c r="D3" t="n">
-        <v>11.28152261412868</v>
+        <v>10.34258269536498</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.18176040974751</v>
+        <v>88.07009296490716</v>
       </c>
       <c r="D4" t="n">
-        <v>10.45862523307568</v>
+        <v>9.242558878343967</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.96686880176874</v>
+        <v>87.50836304378544</v>
       </c>
       <c r="D5" t="n">
-        <v>11.06597578124947</v>
+        <v>9.621685277154361</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.95126326761077</v>
+        <v>87.04149607818761</v>
       </c>
       <c r="D6" t="n">
-        <v>10.77126846235309</v>
+        <v>9.774633939330167</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.94951638771049</v>
+        <v>84.37717146071445</v>
       </c>
       <c r="D7" t="n">
-        <v>9.982377316903717</v>
+        <v>9.879122811562896</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.71172796874338</v>
+        <v>85.10738474448176</v>
       </c>
       <c r="D8" t="n">
-        <v>9.890644173529136</v>
+        <v>8.902576495857895</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.55696346126416</v>
+        <v>81.48453095778594</v>
       </c>
       <c r="D9" t="n">
-        <v>10.73002098340745</v>
+        <v>9.009615376338447</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.90645956915759</v>
+        <v>82.03732362549124</v>
       </c>
       <c r="D10" t="n">
-        <v>9.987697026391677</v>
+        <v>10.2197739325761</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.92006658621928</v>
+        <v>81.15168622411269</v>
       </c>
       <c r="D11" t="n">
-        <v>10.22776725717189</v>
+        <v>9.679609910244835</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.64498592836543</v>
+        <v>78.74447412655307</v>
       </c>
       <c r="D12" t="n">
-        <v>11.62819971306446</v>
+        <v>9.985756827780143</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.02026526853365</v>
+        <v>77.32396431402277</v>
       </c>
       <c r="D13" t="n">
-        <v>10.75665664571097</v>
+        <v>10.03502161148311</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.10228230351393</v>
+        <v>78.19031084705591</v>
       </c>
       <c r="D14" t="n">
-        <v>11.16237044479617</v>
+        <v>10.15665015212718</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.82938849636832</v>
+        <v>76.45881256017972</v>
       </c>
       <c r="D15" t="n">
-        <v>10.45982015630613</v>
+        <v>10.14605429492656</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.69496011821428</v>
+        <v>75.27846065357853</v>
       </c>
       <c r="D16" t="n">
-        <v>10.90019821827553</v>
+        <v>8.864999821910475</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.16203034003534</v>
+        <v>75.39433275763285</v>
       </c>
       <c r="D17" t="n">
-        <v>10.61145147567184</v>
+        <v>10.19343174401645</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.09846837459459</v>
+        <v>72.56637085502271</v>
       </c>
       <c r="D18" t="n">
-        <v>11.20030774068621</v>
+        <v>11.16354625195066</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.97712877613353</v>
+        <v>72.76595899384765</v>
       </c>
       <c r="D19" t="n">
-        <v>9.843520333133682</v>
+        <v>10.17240201796015</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.68536098682142</v>
+        <v>71.03299611032217</v>
       </c>
       <c r="D20" t="n">
-        <v>11.72245018919141</v>
+        <v>10.69857719867548</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.05903508621331</v>
+        <v>73.01646319897057</v>
       </c>
       <c r="D21" t="n">
-        <v>11.05232201137821</v>
+        <v>9.686535810476403</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>66.73869529216857</v>
+        <v>70.42819795851128</v>
       </c>
       <c r="D22" t="n">
-        <v>10.38762086490582</v>
+        <v>10.7050887062936</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.61513677515964</v>
+        <v>69.4150146985948</v>
       </c>
       <c r="D23" t="n">
-        <v>10.13421131957197</v>
+        <v>10.21552219222818</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.55437973695922</v>
+        <v>66.77468602203459</v>
       </c>
       <c r="D24" t="n">
-        <v>10.65345639401072</v>
+        <v>9.090791613275425</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>64.43168781126464</v>
+        <v>66.9440650325848</v>
       </c>
       <c r="D25" t="n">
-        <v>9.93726981692364</v>
+        <v>9.735050789878246</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.0663842063671</v>
+        <v>65.60549765123571</v>
       </c>
       <c r="D26" t="n">
-        <v>11.40312498711881</v>
+        <v>10.19585918838696</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.79467899836667</v>
+        <v>66.12169356423979</v>
       </c>
       <c r="D27" t="n">
-        <v>10.86132729275869</v>
+        <v>10.22691534174807</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.46248988988881</v>
+        <v>64.06262851150896</v>
       </c>
       <c r="D28" t="n">
-        <v>9.845127008430197</v>
+        <v>9.774094411638748</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.03697157414145</v>
+        <v>63.07865655462537</v>
       </c>
       <c r="D29" t="n">
-        <v>9.642401766859216</v>
+        <v>9.82369722272796</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.30394330310144</v>
+        <v>62.80466065494414</v>
       </c>
       <c r="D30" t="n">
-        <v>9.858167596880129</v>
+        <v>11.43525042313478</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.64985409139655</v>
+        <v>61.70923620194529</v>
       </c>
       <c r="D31" t="n">
-        <v>11.21001720164461</v>
+        <v>10.04648804656148</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.02641913724866</v>
+        <v>59.0735594637513</v>
       </c>
       <c r="D32" t="n">
-        <v>10.28664636550373</v>
+        <v>9.910206017393264</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.75463770701026</v>
+        <v>57.24589544084268</v>
       </c>
       <c r="D33" t="n">
-        <v>9.631094822227125</v>
+        <v>9.857340634098458</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.21641133959264</v>
+        <v>58.93458851910011</v>
       </c>
       <c r="D34" t="n">
-        <v>11.47149079755655</v>
+        <v>10.90036909958155</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.81245518083455</v>
+        <v>56.58213792498158</v>
       </c>
       <c r="D35" t="n">
-        <v>10.3456861342894</v>
+        <v>11.22226381158946</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.71953131263214</v>
+        <v>56.20026498328023</v>
       </c>
       <c r="D36" t="n">
-        <v>8.828571679657365</v>
+        <v>9.007481722502813</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.31594659624287</v>
+        <v>54.61670255733504</v>
       </c>
       <c r="D37" t="n">
-        <v>10.11829222084836</v>
+        <v>10.62833718819437</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.91886083302936</v>
+        <v>53.06378478095809</v>
       </c>
       <c r="D38" t="n">
-        <v>10.39529153213336</v>
+        <v>10.24428729788305</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.37321324028716</v>
+        <v>52.94415950742324</v>
       </c>
       <c r="D39" t="n">
-        <v>10.75978470531546</v>
+        <v>9.193146600259947</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.71892518236657</v>
+        <v>50.07757971666481</v>
       </c>
       <c r="D40" t="n">
-        <v>11.08853791949712</v>
+        <v>10.63398828306267</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.83282149710695</v>
+        <v>50.32600916527759</v>
       </c>
       <c r="D41" t="n">
-        <v>10.53203977702857</v>
+        <v>9.160847983241757</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.92934090942296</v>
+        <v>50.77408768236729</v>
       </c>
       <c r="D42" t="n">
-        <v>11.18537099218371</v>
+        <v>10.99020508297244</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.82654965016254</v>
+        <v>49.62635777719755</v>
       </c>
       <c r="D43" t="n">
-        <v>10.62485652304296</v>
+        <v>10.34342249146423</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.27641156136983</v>
+        <v>47.63993793305957</v>
       </c>
       <c r="D44" t="n">
-        <v>9.771424322620531</v>
+        <v>10.83407642178951</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.99712037386782</v>
+        <v>47.95597246134298</v>
       </c>
       <c r="D45" t="n">
-        <v>9.620586737076938</v>
+        <v>10.80381734327482</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.1615855823288</v>
+        <v>46.74242188283439</v>
       </c>
       <c r="D46" t="n">
-        <v>10.57563806287474</v>
+        <v>9.942047818350169</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.70155816334409</v>
+        <v>42.72813396834867</v>
       </c>
       <c r="D47" t="n">
-        <v>10.90644796245405</v>
+        <v>11.44858706539166</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>41.73747309185735</v>
+        <v>41.90711930051062</v>
       </c>
       <c r="D48" t="n">
-        <v>10.3891894999268</v>
+        <v>11.00428180124362</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.70559057761005</v>
+        <v>45.10145173863606</v>
       </c>
       <c r="D49" t="n">
-        <v>9.644966201955162</v>
+        <v>9.65197004432876</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.49339752963806</v>
+        <v>40.30165091182297</v>
       </c>
       <c r="D50" t="n">
-        <v>11.1325084784109</v>
+        <v>10.47440354750639</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.56403597904054</v>
+        <v>39.64531095848114</v>
       </c>
       <c r="D51" t="n">
-        <v>10.46448306016649</v>
+        <v>10.28003800071492</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.53473627917985</v>
+        <v>40.80281148704616</v>
       </c>
       <c r="D52" t="n">
-        <v>9.772468053478956</v>
+        <v>11.44616654504691</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.36075125120523</v>
+        <v>39.60771940021866</v>
       </c>
       <c r="D53" t="n">
-        <v>9.95635773967723</v>
+        <v>10.6085707085136</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.10339030413067</v>
+        <v>38.3670950598835</v>
       </c>
       <c r="D54" t="n">
-        <v>10.51969609767272</v>
+        <v>10.69921910799681</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>34.26553183707355</v>
+        <v>37.84226503639986</v>
       </c>
       <c r="D55" t="n">
-        <v>9.616679562787754</v>
+        <v>11.40012879011317</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.91473088220019</v>
+        <v>36.27407102856984</v>
       </c>
       <c r="D56" t="n">
-        <v>11.40683875064869</v>
+        <v>10.37710068514192</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.81700096225119</v>
+        <v>36.46976368876055</v>
       </c>
       <c r="D57" t="n">
-        <v>11.72974370183852</v>
+        <v>9.941056475164807</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.79153467874266</v>
+        <v>36.76355675222894</v>
       </c>
       <c r="D58" t="n">
-        <v>10.57212099241141</v>
+        <v>10.97311376621581</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.02531633471926</v>
+        <v>32.04320127862691</v>
       </c>
       <c r="D59" t="n">
-        <v>10.41802008318328</v>
+        <v>10.88915736676971</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.98960150288221</v>
+        <v>34.99279030815025</v>
       </c>
       <c r="D60" t="n">
-        <v>10.47113635092092</v>
+        <v>10.28238016483098</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>33.0394770500918</v>
+        <v>31.14694792123974</v>
       </c>
       <c r="D61" t="n">
-        <v>9.05777437760489</v>
+        <v>8.938022821577368</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.25046459584476</v>
+        <v>29.86006463820136</v>
       </c>
       <c r="D62" t="n">
-        <v>9.67522480731656</v>
+        <v>10.09884515445735</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.28498355250984</v>
+        <v>29.63350815228767</v>
       </c>
       <c r="D63" t="n">
-        <v>10.86325689860831</v>
+        <v>10.22176190760163</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.16833391268158</v>
+        <v>26.55277191578237</v>
       </c>
       <c r="D64" t="n">
-        <v>10.38733657558741</v>
+        <v>10.67246245012567</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.5773832387433</v>
+        <v>24.50407069680162</v>
       </c>
       <c r="D65" t="n">
-        <v>9.986145281613386</v>
+        <v>11.89082846814623</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.59827860053513</v>
+        <v>24.85392121743637</v>
       </c>
       <c r="D66" t="n">
-        <v>11.04682382816865</v>
+        <v>11.69168508738954</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.13124907672027</v>
+        <v>26.63287453063731</v>
       </c>
       <c r="D67" t="n">
-        <v>9.755335881331757</v>
+        <v>9.840190594946566</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.78182098629665</v>
+        <v>23.78793869068947</v>
       </c>
       <c r="D68" t="n">
-        <v>9.868677196858641</v>
+        <v>11.21905018721</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.3103948987992</v>
+        <v>21.51810697193397</v>
       </c>
       <c r="D69" t="n">
-        <v>9.413570388832715</v>
+        <v>12.37843641214313</v>
       </c>
     </row>
   </sheetData>
